--- a/src/main/java/models/Excel/测试.xlsx
+++ b/src/main/java/models/Excel/测试.xlsx
@@ -12,38 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,63 +55,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>密码</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
         <f>ROW() - 1</f>
+        <v>0.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Administrator</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <f>ROW() - 1</f>
+        <v>0.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sally</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
         <f>ROW() - 1</f>
+        <v>0.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>user2</t>
+        </is>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>zhangsan</t>
+        </is>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
       </c>
     </row>
   </sheetData>
